--- a/data/financial_statements/sofp/TXN.xlsx
+++ b/data/financial_statements/sofp/TXN.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,1032 +608,1053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>9067000000</v>
+      </c>
+      <c r="C2">
         <v>9090000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8387000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9825000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>9739000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9782000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7390000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6686000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6568000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5518000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4960000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4742000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5387000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5067000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4218000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4086000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4233000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5113000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5130000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4079000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4469000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3444000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2984000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3049000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3490000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3137000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2539000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2800000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3218000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2735000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3306000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3304000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3541000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3186000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2804000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4032000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3829000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3593000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3244000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3862000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1895000000</v>
+      </c>
+      <c r="C3">
         <v>2040000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2190000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1795000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1701000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1653000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1591000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1584000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1414000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1392000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1176000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1316000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1074000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1342000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1419000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1440000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1207000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1585000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1551000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1454000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1278000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1576000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1469000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1337000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1267000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1447000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1348000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1269000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1165000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1481000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1434000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1394000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1246000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1477000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1527000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1355000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1203000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1524000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1491000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1333000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2757000000</v>
+      </c>
+      <c r="C4">
         <v>2404000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2199000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2060000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1910000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1863000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1856000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1890000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1955000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2072000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2136000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2003000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2001000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2040000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2079000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2131000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2217000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2116000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2090000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2032000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1957000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1908000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1947000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1843000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1790000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1808000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1876000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1805000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1691000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1771000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1885000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1844000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1784000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1751000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1744000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1714000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1731000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1726000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1720000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1700000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>238000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>267000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>330000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>335000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>287000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>340000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>245000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>302000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>277000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>216000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>249000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>299000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>14021000000</v>
+      </c>
+      <c r="C6">
         <v>13772000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>13043000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14010000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>13685000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>13585000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>11177000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10405000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10239000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9259000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>8488000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8310000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8761000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8713000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7956000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>7951000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>8097000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9468000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>9592000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8590000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>8734000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7991000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7511000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>7040000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7457000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>7181000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>6689000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>6659000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7074000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7289000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8060000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7692000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7421000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7756000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>7456000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8360000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>8019000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8101000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8038000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>8205000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>6876000000</v>
+      </c>
+      <c r="C7">
         <v>6485000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5931000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5439000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5141000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4021000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3678000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3431000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3269000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3190000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3201000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3233000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3303000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3318000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3365000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3318000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3183000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3051000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2855000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2736000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2664000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2567000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2514000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2501000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2512000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2545000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2557000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2554000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2596000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2629000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2685000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2758000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2840000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2930000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3044000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>3179000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>3399000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3509000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>3611000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>3739000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>152000000</v>
+      </c>
+      <c r="C8">
         <v>75000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>82000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>91000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>85000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>88000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>99000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>113000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>122000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>133000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>141000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>138000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>69000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>77000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>88000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>98000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>89000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>94000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>101000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>102000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>110000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>111000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>114000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>116000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>52000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>50000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>52000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>53000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>46000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>54000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>63000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>73000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>83000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>93000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>101000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>111000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>118000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>139000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>159000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>169000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>37000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>39000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>50000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>62000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>73000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>71000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>70000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>49000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>47000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>36000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>34000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>300000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>298000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>300000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>281000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>251000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>278000000</v>
-      </c>
-      <c r="S9">
-        <v>271000000</v>
       </c>
       <c r="T9">
         <v>271000000</v>
       </c>
       <c r="U9">
+        <v>271000000</v>
+      </c>
+      <c r="V9">
         <v>268000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>258000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>250000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>241000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>235000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>233000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>224000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>220000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>221000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>216000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>228000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>232000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>224000000</v>
-      </c>
-      <c r="AH9">
-        <v>219000000</v>
       </c>
       <c r="AI9">
         <v>219000000</v>
       </c>
       <c r="AJ9">
+        <v>219000000</v>
+      </c>
+      <c r="AK9">
         <v>212000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>216000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>210000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>203000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>204000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>4362000000</v>
@@ -1534,855 +1669,876 @@
         <v>4362000000</v>
       </c>
       <c r="F10">
+        <v>4362000000</v>
+      </c>
+      <c r="G10">
         <v>4371000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4419000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4467000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4362000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4551000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4602000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4652000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4702000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4752000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4831000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>4911000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>4990000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5069000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>5149000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>5228000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5308000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5387000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5467000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5546000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5626000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5706000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5786000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5865000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5945000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6024000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>6104000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6184000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>6264000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>6344000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>6424000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>6504000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>6585000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>6667000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>6750000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>6835000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>473000000</v>
+      </c>
+      <c r="C11">
         <v>291000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>293000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>273000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>263000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>309000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>326000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>331000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>343000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>299000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>236000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>208000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>197000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>257000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>261000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>290000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>295000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>243000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>205000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>218000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>264000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>414000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>412000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>361000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>374000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>355000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>231000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>175000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>201000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>160000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>169000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>174000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>180000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>177000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>194000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>200000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>207000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>227000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>253000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>264000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1135000000</v>
+      </c>
+      <c r="C12">
         <v>799000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>716000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>718000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>748000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>647000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>650000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>657000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>770000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>501000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>518000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>493000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>468000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>471000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>479000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>498000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>140000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>150000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>149000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>147000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>86000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>89000000</v>
-      </c>
-      <c r="W12">
-        <v>71000000</v>
       </c>
       <c r="X12">
         <v>71000000</v>
       </c>
       <c r="Y12">
+        <v>71000000</v>
+      </c>
+      <c r="Z12">
         <v>79000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>82000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>69000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>76000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>62000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>92000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>96000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>105000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>233000000</v>
-      </c>
-      <c r="AH12">
-        <v>246000000</v>
       </c>
       <c r="AI12">
         <v>246000000</v>
       </c>
       <c r="AJ12">
+        <v>246000000</v>
+      </c>
+      <c r="AK12">
         <v>240000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>264000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>272000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>278000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>223000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>13186000000</v>
+      </c>
+      <c r="C13">
         <v>12285000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>11680000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>11266000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>10991000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9688000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9426000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9234000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9112000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>8948000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>8957000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8973000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>9257000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>9279000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>9428000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>9492000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>9040000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>9105000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>8935000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>8917000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>8908000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>8938000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>8927000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>8938000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>8974000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>9035000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>9004000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>9027000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>9156000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>9251000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>9472000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>9654000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>9951000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>10144000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>10354000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>10575000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>10919000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>11143000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>11360000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>11496000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>27207000000</v>
+      </c>
+      <c r="C14">
         <v>26057000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>24723000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>25276000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>24676000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>23273000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>20603000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>19639000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>19351000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>18207000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>17445000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>17283000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>18018000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>17992000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>17384000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>17443000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>17137000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>18573000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>18527000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>17507000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>17642000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>16929000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>16438000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>15978000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>16431000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>16216000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>15693000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>15686000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>16230000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>16540000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>17532000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>17346000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>17372000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>17900000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>17810000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>18935000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>18938000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>19244000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>19398000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>19701000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>851000000</v>
+      </c>
+      <c r="C15">
         <v>780000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>712000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>641000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>571000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>596000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>587000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>567000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>415000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>411000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>409000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>363000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>388000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>397000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>412000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>477000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>478000000</v>
-      </c>
-      <c r="R15">
-        <v>492000000</v>
       </c>
       <c r="S15">
         <v>492000000</v>
       </c>
       <c r="T15">
+        <v>492000000</v>
+      </c>
+      <c r="U15">
         <v>488000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>466000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>430000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>450000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>429000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>396000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>428000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>416000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>387000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>386000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>367000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>417000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>432000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>437000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>393000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>402000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>405000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>422000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>426000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>437000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>440000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1445000000</v>
+      </c>
+      <c r="C16">
         <v>1396000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1234000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>982000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1377000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1216000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1008000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>855000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1291000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1180000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1024000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>905000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1189000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1053000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>898000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>819000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1144000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1037000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>854000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>739000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1164000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1052000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>842000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>718000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1154000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1040000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>880000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>717000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1074000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1046000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>906000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>775000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1149000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1140000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1036000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>964000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1205000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1258000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1145000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1059000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>499000000</v>
+        <v>500000000</v>
       </c>
       <c r="C17">
         <v>499000000</v>
       </c>
       <c r="D17">
-        <v>500000000</v>
+        <v>499000000</v>
       </c>
       <c r="E17">
         <v>500000000</v>
@@ -2391,88 +2547,88 @@
         <v>500000000</v>
       </c>
       <c r="G17">
+        <v>500000000</v>
+      </c>
+      <c r="H17">
         <v>499000000</v>
-      </c>
-      <c r="I17">
-        <v>550000000</v>
       </c>
       <c r="J17">
         <v>550000000</v>
       </c>
       <c r="K17">
+        <v>550000000</v>
+      </c>
+      <c r="L17">
         <v>551000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1051000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>500000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>499000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1249000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>750000000</v>
-      </c>
-      <c r="Q17">
-        <v>749000000</v>
       </c>
       <c r="R17">
         <v>749000000</v>
       </c>
-      <c r="T17">
-        <v>500000000</v>
+      <c r="S17">
+        <v>749000000</v>
       </c>
       <c r="U17">
         <v>500000000</v>
       </c>
       <c r="V17">
-        <v>499000000</v>
+        <v>500000000</v>
       </c>
       <c r="W17">
         <v>499000000</v>
       </c>
       <c r="X17">
+        <v>499000000</v>
+      </c>
+      <c r="Y17">
         <v>378000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>631000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>634000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>637000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1249000000</v>
-      </c>
-      <c r="AC17">
-        <v>1000000000</v>
       </c>
       <c r="AD17">
         <v>1000000000</v>
       </c>
       <c r="AE17">
+        <v>1000000000</v>
+      </c>
+      <c r="AF17">
         <v>1750000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1000000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1001000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1002000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>254000000</v>
-      </c>
-      <c r="AJ17">
-        <v>1000000000</v>
       </c>
       <c r="AK17">
         <v>1000000000</v>
@@ -2484,158 +2640,161 @@
         <v>1000000000</v>
       </c>
       <c r="AN17">
+        <v>1000000000</v>
+      </c>
+      <c r="AO17">
         <v>1500000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>189000000</v>
+      </c>
+      <c r="C18">
         <v>123000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>115000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>405000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>121000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>101000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>107000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>278000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>134000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>44000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>179000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>62000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>46000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>58000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>87000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>113000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>103000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>104000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>120000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>133000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>128000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>74000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>86000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>77000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>83000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>68000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>58000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>67000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>95000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>84000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>117000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>75000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>71000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>106000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>109000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>101000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>119000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>37000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>218000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>109000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD19">
-        <v>3000000</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AE19">
         <v>3000000</v>
       </c>
       <c r="AF19">
+        <v>3000000</v>
+      </c>
+      <c r="AG19">
         <v>4000000</v>
-      </c>
-      <c r="AH19">
-        <v>2000000</v>
       </c>
       <c r="AI19">
         <v>2000000</v>
       </c>
       <c r="AJ19">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AK19">
         <v>1000000</v>
       </c>
       <c r="AL19">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="AM19">
         <v>2000000</v>
@@ -2643,1032 +2802,1059 @@
       <c r="AN19">
         <v>2000000</v>
       </c>
+      <c r="AO19">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>1396000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1234000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>982000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1213000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1216000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1008000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>855000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1219000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1180000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1024000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>905000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1116000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>2985000000</v>
+      </c>
+      <c r="C21">
         <v>2798000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2560000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2528000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2569000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2413000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2201000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1700000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2390000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2185000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2163000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2381000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2123000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2007000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2646000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2159000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2474000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2382000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1466000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1860000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2258000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2055000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1877000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1602000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2264000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>2170000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1991000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2420000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2555000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2500000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>3193000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>2286000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>2658000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>2643000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1803000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2471000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>2747000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2723000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2802000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>3110000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>8235000000</v>
+      </c>
+      <c r="C22">
         <v>7438000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6745000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7242000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7241000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>7239000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>5752000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>6250000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6248000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6247000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6245000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>5499000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>5303000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>5302000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>4558000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>5057000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>4319000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>4318000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>5066000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3578000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3577000000</v>
-      </c>
-      <c r="V22">
-        <v>3084000000</v>
       </c>
       <c r="W22">
         <v>3084000000</v>
       </c>
       <c r="X22">
+        <v>3084000000</v>
+      </c>
+      <c r="Y22">
         <v>2980000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>2978000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>2977000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2975000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2869000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3120000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>3132000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>3134000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>3638000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3630000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3643000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>4394000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>4652000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>4158000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>4161000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4165000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>4183000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="V23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23">
         <v>656000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>635000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>624000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>554000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>547000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>532000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>382000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>376000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>383000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>391000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>397000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>405000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>471000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>439000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>438000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>462000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>492000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>539000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>600000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>118000000</v>
+      </c>
+      <c r="C24">
         <v>69000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>71000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>81000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>79000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>129000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>131000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>130000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>131000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>103000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>99000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>95000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>93000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>123000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>121000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>120000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>118000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>86000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>82000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>92000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>89000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>108000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>101000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>97000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>129000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>201000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>193000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>195000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>196000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>247000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>254000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>253000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>225000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>222000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>224000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>218000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>216000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>253000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>240000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>258000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>66000000</v>
+      </c>
+      <c r="C25">
         <v>92000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>90000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>94000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>87000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>86000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>87000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>88000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>90000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>69000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>60000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>64000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>78000000</v>
-      </c>
-      <c r="N25">
-        <v>49000000</v>
       </c>
       <c r="O25">
         <v>49000000</v>
       </c>
       <c r="P25">
+        <v>49000000</v>
+      </c>
+      <c r="Q25">
         <v>43000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>42000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>43000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>50000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>53000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>78000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>38000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>33000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>36000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>33000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>35000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>40000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>38000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>37000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>308000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>355000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>403000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>64000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>450000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>484000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>536000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>548000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>564000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>584000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>598000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1226000000</v>
+      </c>
+      <c r="C26">
         <v>1153000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1165000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1314000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1367000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1255000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1279000000</v>
-      </c>
-      <c r="H26">
-        <v>1305000000</v>
       </c>
       <c r="I26">
         <v>1305000000</v>
       </c>
       <c r="J26">
+        <v>1305000000</v>
+      </c>
+      <c r="K26">
         <v>1278000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1234000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1510000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1514000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1526000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1524000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1545000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1190000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1228000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1229000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1282000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1303000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>9645000000</v>
+      </c>
+      <c r="C27">
         <v>8752000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>8071000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>8731000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>8774000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>8709000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7249000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7773000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>7774000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>7697000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>7638000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>7168000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6988000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>7000000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6252000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6765000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5669000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5675000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>6427000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>5005000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5047000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3886000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3853000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3737000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3694000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3760000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3740000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3484000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3729000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>4070000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>4134000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4691000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>4324000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>4786000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>5541000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>5844000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>5384000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>5470000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>5528000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>5639000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>12630000000</v>
+      </c>
+      <c r="C28">
         <v>11550000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>10631000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>11259000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11343000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>11122000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9450000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>9473000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>10164000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9882000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>9801000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>9549000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9111000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9007000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>8898000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>8924000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>8143000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>8057000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>7893000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>6865000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>7305000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>5941000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>5730000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>5339000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>5958000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>5930000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>5731000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>5904000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>6284000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>6570000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>7327000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>6977000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>6982000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>7429000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>7344000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>8315000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>8131000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>8193000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>8330000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>8749000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2951000000</v>
+      </c>
+      <c r="C29">
         <v>2877000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2783000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2667000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2630000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2563000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2485000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2391000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2333000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2257000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2182000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2096000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2110000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>2058000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2003000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1927000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1950000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1918000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1867000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1770000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1776000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1718000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1683000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1597000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1674000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1757000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1681000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1558000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1629000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1562000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1504000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1410000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1368000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1314000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1273000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1181000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1211000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1125000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1117000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1049000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>1741000000</v>
@@ -3787,1102 +3973,1132 @@
       <c r="AN30">
         <v>1741000000</v>
       </c>
+      <c r="AO30">
+        <v>1741000000</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>50353000000</v>
+      </c>
+      <c r="C31">
         <v>49519000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>48280000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>47053000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>45919000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>44847000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>43846000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>42860000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>42051000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>41305000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>40780000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>40227000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>39898000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>39674000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>38974000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>38396000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>37906000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>37378000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>36413000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>35619000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>34662000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>34935000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>34149000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>33595000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>33107000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>32432000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>31850000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>31457000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>31176000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>30731000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>30286000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>29948000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>29653000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>29189000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>28686000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>28331000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>28173000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>27993000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>27677000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>27330000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>40214000000</v>
+      </c>
+      <c r="C32">
         <v>39476000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>38532000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>37291000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>36800000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>36687000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>36596000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>36479000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>36578000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>36643000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>36725000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>36002000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>34495000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>34045000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>33775000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>33080000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>32130000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>30167000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>29016000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>28096000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>27458000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>26901000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>26345000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>25767000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>25523000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>25102000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>24774000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>24443000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>24068000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>23551000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>22812000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>22199000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>21840000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>21305000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>20722000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>20113000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>19790000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>19236000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>18877000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>18518000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>14577000000</v>
+      </c>
+      <c r="C33">
         <v>14507000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>14092000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>14017000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>13333000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>12151000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>11153000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>10166000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>9187000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>8325000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>7644000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>7734000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>8907000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>8985000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>8486000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>8519000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>8994000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>10516000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>10634000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>10642000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>10337000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>10988000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>10708000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>10639000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>10473000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>10286000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>9962000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>9782000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>9946000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>9970000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>10205000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>10369000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>10390000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>10471000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>10466000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>10620000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>10807000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>11051000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>11068000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>10952000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>14577000000</v>
+      </c>
+      <c r="C34">
         <v>14507000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>14092000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>14017000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>13333000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>12151000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>11153000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>10166000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>9187000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>8325000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>7644000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>7734000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>8907000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>8985000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>8486000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>8519000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>8994000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>10516000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>10634000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>10642000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>10337000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>10988000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>10708000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>10639000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>10473000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>10286000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>9962000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>9782000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>9946000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>9970000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>10205000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>10369000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>10390000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>10471000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>10466000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>10620000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>10807000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>11051000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>11068000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>10952000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>27207000000</v>
+      </c>
+      <c r="C35">
         <v>26057000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>24723000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>25276000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>24676000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>23273000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>20603000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>19639000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>19351000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>18207000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>17445000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>17283000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>18018000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>17992000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>17384000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>17443000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>17137000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>18573000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>18527000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>17507000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>17642000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>16929000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>16438000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>15978000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>16431000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>16216000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>15693000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>15686000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>16230000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>16540000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>17532000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>17346000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>17372000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>17900000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>17810000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>18935000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>18938000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>19244000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>19398000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>19701000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>906000000</v>
+      </c>
+      <c r="C36">
         <v>910000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>915000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>922000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>924000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>923415000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>923087000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>923242900</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>920000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>917641400</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>915590600</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>921480800</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>932032000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>935178000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>934565000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>938799000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>945150300</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>964863000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>974366000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>981718000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>983159000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>986357000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>991717000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>997730000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>995983900</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1001122000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>1003348000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>1006572000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>1011268000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>1019630000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>1034102000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>1044414000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>1046627000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>1056300000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>1067555000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>1079351000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>1082803000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1094563000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1101173000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1109154000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>10215000000</v>
+      </c>
+      <c r="C37">
         <v>10145000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>9730000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>9655000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>8971000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>7780000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>6734000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5699000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4825000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3774000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>3042000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>3082000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>4205000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>4233000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>3655000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>3608000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>4004000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>5447000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>5485000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>5414000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>5029000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>5601000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>5241000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>5093000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>4847000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>4580000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>4176000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>3917000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>4001000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>3946000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>4101000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>4185000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>4126000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>4127000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>4042000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>4116000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>4222000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>4384000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>4318000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>4117000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>-332000000</v>
+      </c>
+      <c r="C38">
         <v>-1153000000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-1143000000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-2083000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-1998000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-2043000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>-1139000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-436000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>230000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1279000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1836000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1808000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>416000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>734000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>1589000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>1721000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>835000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>-46000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>-64000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>-1000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-392000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>139000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>599000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>309000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>119000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>474000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>1073000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>1318000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>902000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>1397000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>1578000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>1334000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>1090000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>1459000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>1844000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>1620000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>1329000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>1568000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>1921000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1821000000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>8735000000</v>
+      </c>
+      <c r="C39">
         <v>7937000000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>7244000000</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>7742000000</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7741000000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7739000000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>6251000000</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>6250000000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>6798000000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>6797000000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>6796000000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>6550000000</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>5803000000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>5801000000</v>
-      </c>
-      <c r="O39">
-        <v>5807000000</v>
       </c>
       <c r="P39">
         <v>5807000000</v>
       </c>
       <c r="Q39">
+        <v>5807000000</v>
+      </c>
+      <c r="R39">
         <v>5068000000</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>5067000000</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>5066000000</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>4078000000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>4077000000</v>
-      </c>
-      <c r="V39">
-        <v>3583000000</v>
       </c>
       <c r="W39">
         <v>3583000000</v>
       </c>
       <c r="X39">
+        <v>3583000000</v>
+      </c>
+      <c r="Y39">
         <v>3358000000</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>3609000000</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>3611000000</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>3612000000</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>4118000000</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>4120000000</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>4132000000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>4884000000</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>4638000000</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>4631000000</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>4645000000</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>4648000000</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>5652000000</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>5158000000</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>5161000000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>5165000000</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>5683000000</v>
       </c>
     </row>
